--- a/3. 캐릭터 설정UI/캐릭터 설정UI_좌표.xlsx
+++ b/3. 캐릭터 설정UI/캐릭터 설정UI_좌표.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="19395" windowHeight="8520"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
-  <si>
-    <t>269, 151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Character_set_background</t>
   </si>
@@ -99,27 +95,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>388, 175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>388, 175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>388, 225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>388, 275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평상시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>368, 240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>422, 190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>422, 240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>422, 290</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,6 +391,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,12 +404,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,7 +711,7 @@
   <dimension ref="C1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,41 +723,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="3" spans="3:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -774,64 +770,64 @@
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
@@ -842,40 +838,40 @@
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -888,26 +884,26 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="3:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
